--- a/pred_ohlcv/54_21/2020-01-13 GNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 GNT ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>140324.5232</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>131802.3671</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>131802.3671</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>131802.3671</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>132982.367</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>128315.8219</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>143715.9583</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>142669.9583</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>142669.9583</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>127545.5806</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>131205.3795</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>133493.1195</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>133493.1195</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>141178.4178</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>157266.9062</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>157266.9062</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>157266.9062</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>157266.9062</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>158300.9062</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>205775.927</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>222355.1218</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>160532.8292</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>135140.9123</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>156509.0944</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>156509.0944</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>209895.153</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>616031.8098000002</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>614477.7501000002</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>599967.0723000002</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>740544.9422000003</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>740544.9422000003</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>809774.0074000002</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>799774.0074000002</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>801014.0074000002</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>837353.8338000003</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>813626.5818000003</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>801947.5818000003</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>801947.5818000003</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>801947.5818000003</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 GNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 GNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>225051.922</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>209860.4696</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>216259.0658</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -730,7 +730,7 @@
         <v>182733.2233</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -860,7 +860,7 @@
         <v>147972.9158</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>108649.289</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>141090.8581</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>140090.8581</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>144590.8581</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>140324.5232</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>131802.3671</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>131802.3671</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>131802.3671</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>132982.367</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>128315.8219</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>143715.9583</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>142669.9583</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>142669.9583</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>157266.9062</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>157266.9062</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>158300.9062</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>222355.1218</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>117103.0264</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>138995.6113</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>685388.2520000001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>660596.6870000002</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>616031.8098000002</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>616031.8098000002</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>616031.8098000002</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>616131.8098000002</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>615523.7501000002</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>614477.7501000002</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>599967.0723000002</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>661684.0575000002</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>753160.3904000003</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>760538.9422000003</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>740544.9422000003</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>740544.9422000003</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>809774.0074000002</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>799774.0074000002</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>799774.0074000002</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>801014.0074000002</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>837353.8338000003</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>813626.5818000003</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>801947.5818000003</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>801947.5818000003</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>801947.5818000003</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>803127.5817000003</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>810976.9178000003</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>808576.9178000003</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
